--- a/biology/Botanique/Reinette_du_Mans/Reinette_du_Mans.xlsx
+++ b/biology/Botanique/Reinette_du_Mans/Reinette_du_Mans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Reinette du Mans est une variété de pomme originaire de la Sarthe (canton de Montfort-le-Gesnois) où elle est cultivée depuis le début du XIXe siècle.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« De Jaune », « Petit Jaune », « D'Argent » (en Indre-et-Loire), « Breton », « Pape » et « Reine de Mai ».
 </t>
@@ -542,7 +556,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Reinette du Mans est une pomme charnue, moyenne à grosse, plus large que haute, au goût légèrement acidulé. Elle est très appréciée des amateurs de pommes pour son parfum vanillé.
 Son épiderme lisse, de couleur jaune-vert clair ponctué de petites taches grises, peut foncer à l'insolation.
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre de bonne vigueur, à port étalé, est productif et autofertile. Il peut être cultivé en montagne grâce à sa rusticité et sa floraison tardive. Les formes naines lui conviennent très bien.
 Il résiste à la tavelure mais craint la fumagine. Pour éviter le chancre nectrien, éviter les endroits humides.
